--- a/Code/Results/Cases/Case_0_211/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_211/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9770777113457487</v>
+        <v>1.022865631252103</v>
       </c>
       <c r="D2">
-        <v>0.9856999971356631</v>
+        <v>1.025510287619976</v>
       </c>
       <c r="E2">
-        <v>0.9947643940817129</v>
+        <v>1.032608628337462</v>
       </c>
       <c r="F2">
-        <v>1.001730142757265</v>
+        <v>1.041416197227252</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045344468528287</v>
+        <v>1.026706965650817</v>
       </c>
       <c r="J2">
-        <v>0.9999663283304029</v>
+        <v>1.028049065184334</v>
       </c>
       <c r="K2">
-        <v>0.9973622153681527</v>
+        <v>1.028335647395785</v>
       </c>
       <c r="L2">
-        <v>1.006297154357862</v>
+        <v>1.0354133672848</v>
       </c>
       <c r="M2">
-        <v>1.013165426454723</v>
+        <v>1.044195774322585</v>
       </c>
       <c r="N2">
-        <v>1.003577035557237</v>
+        <v>1.013324148161443</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9824369102966298</v>
+        <v>1.023998909902228</v>
       </c>
       <c r="D3">
-        <v>0.9903775105291214</v>
+        <v>1.026556119376375</v>
       </c>
       <c r="E3">
-        <v>0.9992950300062221</v>
+        <v>1.0336159513703</v>
       </c>
       <c r="F3">
-        <v>1.006730309849288</v>
+        <v>1.042513387903579</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045678957212161</v>
+        <v>1.026675851733607</v>
       </c>
       <c r="J3">
-        <v>1.003418089446083</v>
+        <v>1.028819623087733</v>
       </c>
       <c r="K3">
-        <v>1.001135011720285</v>
+        <v>1.029188150035785</v>
       </c>
       <c r="L3">
-        <v>1.009936939009176</v>
+        <v>1.036228967212125</v>
       </c>
       <c r="M3">
-        <v>1.017277793345612</v>
+        <v>1.045102835912574</v>
       </c>
       <c r="N3">
-        <v>1.004782474601979</v>
+        <v>1.013586760982975</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9858270970534203</v>
+        <v>1.024732554952344</v>
       </c>
       <c r="D4">
-        <v>0.9933427484765933</v>
+        <v>1.027233488926321</v>
       </c>
       <c r="E4">
-        <v>1.002166478713056</v>
+        <v>1.034268178707507</v>
       </c>
       <c r="F4">
-        <v>1.009895595936205</v>
+        <v>1.043223275939709</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045872326843881</v>
+        <v>1.026653328498527</v>
       </c>
       <c r="J4">
-        <v>1.0056004293035</v>
+        <v>1.029318058496989</v>
       </c>
       <c r="K4">
-        <v>1.003522190318795</v>
+        <v>1.029739827277754</v>
       </c>
       <c r="L4">
-        <v>1.012238826383836</v>
+        <v>1.036756530907662</v>
       </c>
       <c r="M4">
-        <v>1.01987603910109</v>
+        <v>1.045689109917733</v>
       </c>
       <c r="N4">
-        <v>1.005543598752764</v>
+        <v>1.013756436762798</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.987234552487489</v>
+        <v>1.025041060988944</v>
       </c>
       <c r="D5">
-        <v>0.9945752344755242</v>
+        <v>1.027518409937326</v>
       </c>
       <c r="E5">
-        <v>1.003359800124916</v>
+        <v>1.034542475959977</v>
       </c>
       <c r="F5">
-        <v>1.01121011846128</v>
+        <v>1.043521696316437</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045948139785818</v>
+        <v>1.026643286458578</v>
       </c>
       <c r="J5">
-        <v>1.006506100380215</v>
+        <v>1.029527560827157</v>
       </c>
       <c r="K5">
-        <v>1.004513319336084</v>
+        <v>1.029971764690024</v>
       </c>
       <c r="L5">
-        <v>1.013194256854205</v>
+        <v>1.036978274530145</v>
       </c>
       <c r="M5">
-        <v>1.020953848742279</v>
+        <v>1.045935422132413</v>
       </c>
       <c r="N5">
-        <v>1.005859214419504</v>
+        <v>1.013827707973501</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9874698500337405</v>
+        <v>1.025092865320127</v>
       </c>
       <c r="D6">
-        <v>0.9947813644267672</v>
+        <v>1.027566258511916</v>
       </c>
       <c r="E6">
-        <v>1.003559368699888</v>
+        <v>1.034588537587128</v>
       </c>
       <c r="F6">
-        <v>1.011429902426656</v>
+        <v>1.043571801429935</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045960548954671</v>
+        <v>1.026641566709819</v>
       </c>
       <c r="J6">
-        <v>1.006657488590122</v>
+        <v>1.029562734851993</v>
       </c>
       <c r="K6">
-        <v>1.00467901884283</v>
+        <v>1.030010708725819</v>
       </c>
       <c r="L6">
-        <v>1.013353970894506</v>
+        <v>1.037015503667686</v>
       </c>
       <c r="M6">
-        <v>1.02113398255458</v>
+        <v>1.045976769795241</v>
       </c>
       <c r="N6">
-        <v>1.005911956372697</v>
+        <v>1.013839671173715</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9858459723875937</v>
+        <v>1.024736676903317</v>
       </c>
       <c r="D7">
-        <v>0.9933592716421289</v>
+        <v>1.027237295446253</v>
       </c>
       <c r="E7">
-        <v>1.002182477564989</v>
+        <v>1.034271843484629</v>
       </c>
       <c r="F7">
-        <v>1.0099132233527</v>
+        <v>1.043227263512913</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045873361336721</v>
+        <v>1.026653196570139</v>
       </c>
       <c r="J7">
-        <v>1.005612576630271</v>
+        <v>1.029320858034129</v>
       </c>
       <c r="K7">
-        <v>1.003535482070951</v>
+        <v>1.029742926388387</v>
       </c>
       <c r="L7">
-        <v>1.012251640545536</v>
+        <v>1.036759494030453</v>
       </c>
       <c r="M7">
-        <v>1.019890497120126</v>
+        <v>1.045692401772597</v>
       </c>
       <c r="N7">
-        <v>1.005547832957753</v>
+        <v>1.013757389329996</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9789054319844864</v>
+        <v>1.023248558542754</v>
       </c>
       <c r="D8">
-        <v>0.9872938791382516</v>
+        <v>1.025863597554226</v>
       </c>
       <c r="E8">
-        <v>0.9963083575433684</v>
+        <v>1.032948970414474</v>
       </c>
       <c r="F8">
-        <v>1.003434891141526</v>
+        <v>1.041787011763677</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045462313524363</v>
+        <v>1.026696944921733</v>
       </c>
       <c r="J8">
-        <v>1.001143755053297</v>
+        <v>1.028309513480885</v>
       </c>
       <c r="K8">
-        <v>0.9986487588086488</v>
+        <v>1.028623744138844</v>
       </c>
       <c r="L8">
-        <v>1.007538567774151</v>
+        <v>1.03568904113286</v>
       </c>
       <c r="M8">
-        <v>1.01456853480814</v>
+        <v>1.044502455489732</v>
       </c>
       <c r="N8">
-        <v>1.003988425684609</v>
+        <v>1.013412951574591</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.966043002922936</v>
+        <v>1.020628858867363</v>
       </c>
       <c r="D9">
-        <v>0.9761063232615584</v>
+        <v>1.023447913184159</v>
       </c>
       <c r="E9">
-        <v>0.9854691148830552</v>
+        <v>1.030621136565004</v>
       </c>
       <c r="F9">
-        <v>0.9914515513115856</v>
+        <v>1.039248600182973</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044559214528243</v>
+        <v>1.026755770427594</v>
       </c>
       <c r="J9">
-        <v>0.9928546114889452</v>
+        <v>1.026526111331389</v>
       </c>
       <c r="K9">
-        <v>0.9895993312625897</v>
+        <v>1.026651988622907</v>
       </c>
       <c r="L9">
-        <v>0.9988024287545607</v>
+        <v>1.033801361307025</v>
       </c>
       <c r="M9">
-        <v>1.004684860643016</v>
+        <v>1.042400616899688</v>
       </c>
       <c r="N9">
-        <v>1.001088386217865</v>
+        <v>1.01280407996468</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9569851164995393</v>
+        <v>1.018884060854426</v>
       </c>
       <c r="D10">
-        <v>0.9682681645339528</v>
+        <v>1.021840773836129</v>
       </c>
       <c r="E10">
-        <v>0.9778733150660194</v>
+        <v>1.029071428695964</v>
       </c>
       <c r="F10">
-        <v>0.9830351593462613</v>
+        <v>1.037556003022065</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043833662337973</v>
+        <v>1.026782765030883</v>
       </c>
       <c r="J10">
-        <v>0.9870158017068271</v>
+        <v>1.025336305053232</v>
       </c>
       <c r="K10">
-        <v>0.9832349982430101</v>
+        <v>1.025337736353184</v>
       </c>
       <c r="L10">
-        <v>0.99265390595959</v>
+        <v>1.032541966270522</v>
       </c>
       <c r="M10">
-        <v>0.9977176271990806</v>
+        <v>1.040996051377452</v>
       </c>
       <c r="N10">
-        <v>0.9990412413011813</v>
+        <v>1.012396873390566</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9529340661816481</v>
+        <v>1.018128927993625</v>
       </c>
       <c r="D11">
-        <v>0.9647732302900771</v>
+        <v>1.02114564853345</v>
       </c>
       <c r="E11">
-        <v>0.9744863773902454</v>
+        <v>1.028400905471588</v>
       </c>
       <c r="F11">
-        <v>0.9792780631506239</v>
+        <v>1.0368230154695</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043489366102651</v>
+        <v>1.026791566969526</v>
       </c>
       <c r="J11">
-        <v>0.98440494827616</v>
+        <v>1.024820896454931</v>
       </c>
       <c r="K11">
-        <v>0.980391519272015</v>
+        <v>1.024768707518954</v>
       </c>
       <c r="L11">
-        <v>0.9899060342472941</v>
+        <v>1.031996410648891</v>
       </c>
       <c r="M11">
-        <v>0.994601638957843</v>
+        <v>1.040387070648639</v>
       </c>
       <c r="N11">
-        <v>0.9981249787801386</v>
+        <v>1.012220242574225</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9514086080369859</v>
+        <v>1.017848493432861</v>
       </c>
       <c r="D12">
-        <v>0.9634588724652304</v>
+        <v>1.020887564372235</v>
       </c>
       <c r="E12">
-        <v>0.9732126542129949</v>
+        <v>1.028151919877941</v>
       </c>
       <c r="F12">
-        <v>0.9778645135054339</v>
+        <v>1.036550739015063</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04335687311926</v>
+        <v>1.026794403602652</v>
       </c>
       <c r="J12">
-        <v>0.9834219611490087</v>
+        <v>1.024629418188923</v>
       </c>
       <c r="K12">
-        <v>0.9793213031168773</v>
+        <v>1.024557352217143</v>
       </c>
       <c r="L12">
-        <v>0.9888717035973431</v>
+        <v>1.031793732427587</v>
       </c>
       <c r="M12">
-        <v>0.9934284472650469</v>
+        <v>1.040160748898479</v>
       </c>
       <c r="N12">
-        <v>0.997779889689655</v>
+        <v>1.012154587810452</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9517367844694417</v>
+        <v>1.017908645108707</v>
       </c>
       <c r="D13">
-        <v>0.9637415562872937</v>
+        <v>1.02094291904258</v>
       </c>
       <c r="E13">
-        <v>0.9734865971906789</v>
+        <v>1.02820532466907</v>
       </c>
       <c r="F13">
-        <v>0.9781685570822087</v>
+        <v>1.036609143791983</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043385503108005</v>
+        <v>1.026793814705538</v>
       </c>
       <c r="J13">
-        <v>0.9836334259606526</v>
+        <v>1.024670492405683</v>
       </c>
       <c r="K13">
-        <v>0.9795515170417692</v>
+        <v>1.024602688319847</v>
       </c>
       <c r="L13">
-        <v>0.9890942022696336</v>
+        <v>1.031837209160635</v>
       </c>
       <c r="M13">
-        <v>0.9936808296985571</v>
+        <v>1.040209301072949</v>
       </c>
       <c r="N13">
-        <v>0.9978541318680536</v>
+        <v>1.012168673071258</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9528084021907111</v>
+        <v>1.018105746061512</v>
       </c>
       <c r="D14">
-        <v>0.9646649213846022</v>
+        <v>1.0211243128452</v>
       </c>
       <c r="E14">
-        <v>0.9743814163765305</v>
+        <v>1.028380322683049</v>
       </c>
       <c r="F14">
-        <v>0.9791615922655422</v>
+        <v>1.036800509262284</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04347850864016</v>
+        <v>1.026791810270159</v>
       </c>
       <c r="J14">
-        <v>0.9843239683298348</v>
+        <v>1.024805069467873</v>
       </c>
       <c r="K14">
-        <v>0.9803033460694013</v>
+        <v>1.024751236675883</v>
       </c>
       <c r="L14">
-        <v>0.9898208194536281</v>
+        <v>1.031979657909915</v>
       </c>
       <c r="M14">
-        <v>0.99450498973535</v>
+        <v>1.040368365252613</v>
       </c>
       <c r="N14">
-        <v>0.9980965520931957</v>
+        <v>1.01221481647366</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9534658735922216</v>
+        <v>1.018227193772282</v>
       </c>
       <c r="D15">
-        <v>0.9652316607592863</v>
+        <v>1.021236090957537</v>
       </c>
       <c r="E15">
-        <v>0.9749306384966914</v>
+        <v>1.028488154880268</v>
       </c>
       <c r="F15">
-        <v>0.9797710160801084</v>
+        <v>1.036918414223737</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043535199564416</v>
+        <v>1.026790517948808</v>
       </c>
       <c r="J15">
-        <v>0.9847476604160867</v>
+        <v>1.024887982512903</v>
       </c>
       <c r="K15">
-        <v>0.9807646881548195</v>
+        <v>1.024842763183932</v>
       </c>
       <c r="L15">
-        <v>0.9902666785968166</v>
+        <v>1.032067420700659</v>
       </c>
       <c r="M15">
-        <v>0.995010663959873</v>
+        <v>1.040466354154753</v>
       </c>
       <c r="N15">
-        <v>0.9982452776440546</v>
+        <v>1.012243240823324</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.957251142671833</v>
+        <v>1.018934184366349</v>
       </c>
       <c r="D16">
-        <v>0.9684978999671811</v>
+        <v>1.021886923345777</v>
       </c>
       <c r="E16">
-        <v>0.9780959525439716</v>
+        <v>1.029115939860446</v>
       </c>
       <c r="F16">
-        <v>0.9832820417508241</v>
+        <v>1.037604647272606</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043855870756382</v>
+        <v>1.026782120130775</v>
       </c>
       <c r="J16">
-        <v>0.9871872691564642</v>
+        <v>1.025370506475296</v>
       </c>
       <c r="K16">
-        <v>0.9834217924641174</v>
+        <v>1.025375501970749</v>
       </c>
       <c r="L16">
-        <v>0.9928344045625903</v>
+        <v>1.032578168159192</v>
       </c>
       <c r="M16">
-        <v>0.997922262941293</v>
+        <v>1.041036450697671</v>
       </c>
       <c r="N16">
-        <v>0.9991013998415398</v>
+        <v>1.012408589314631</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9595901098377421</v>
+        <v>1.019377760819289</v>
       </c>
       <c r="D17">
-        <v>0.970519005369972</v>
+        <v>1.022295380986882</v>
       </c>
       <c r="E17">
-        <v>0.9800546091388024</v>
+        <v>1.029509869392943</v>
       </c>
       <c r="F17">
-        <v>0.9854535111661257</v>
+        <v>1.038035081268085</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044048899353562</v>
+        <v>1.026776080152916</v>
       </c>
       <c r="J17">
-        <v>0.9886949182102182</v>
+        <v>1.025673123322304</v>
       </c>
       <c r="K17">
-        <v>0.9850644725504463</v>
+        <v>1.02570968837795</v>
       </c>
       <c r="L17">
-        <v>0.9944216309068735</v>
+        <v>1.032898485076752</v>
       </c>
       <c r="M17">
-        <v>0.9997214926190815</v>
+        <v>1.041393844596261</v>
       </c>
       <c r="N17">
-        <v>0.9996302541483063</v>
+        <v>1.012512225688069</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9609420474806036</v>
+        <v>1.019636527831213</v>
       </c>
       <c r="D18">
-        <v>0.9716882138090608</v>
+        <v>1.022533702376751</v>
       </c>
       <c r="E18">
-        <v>0.9811876824383631</v>
+        <v>1.029739691088815</v>
       </c>
       <c r="F18">
-        <v>0.9867092905402497</v>
+        <v>1.038286138238406</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044158588589145</v>
+        <v>1.026772278530361</v>
       </c>
       <c r="J18">
-        <v>0.9895663904283553</v>
+        <v>1.025849613922155</v>
       </c>
       <c r="K18">
-        <v>0.986014221141719</v>
+        <v>1.025904618605052</v>
       </c>
       <c r="L18">
-        <v>0.9953392391933252</v>
+        <v>1.033085298403886</v>
       </c>
       <c r="M18">
-        <v>1.000761451599727</v>
+        <v>1.041602229732163</v>
       </c>
       <c r="N18">
-        <v>0.9999358663745036</v>
+        <v>1.012572645343663</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9614009688265225</v>
+        <v>1.019724766898286</v>
       </c>
       <c r="D19">
-        <v>0.9720852732344187</v>
+        <v>1.022614976536948</v>
       </c>
       <c r="E19">
-        <v>0.9815724681746995</v>
+        <v>1.029818062707429</v>
       </c>
       <c r="F19">
-        <v>0.9871356773520109</v>
+        <v>1.038371740836364</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0441955000125</v>
+        <v>1.026770934990617</v>
       </c>
       <c r="J19">
-        <v>0.9898622204475492</v>
+        <v>1.025909789156569</v>
       </c>
       <c r="K19">
-        <v>0.9863366608618738</v>
+        <v>1.025971085624639</v>
       </c>
       <c r="L19">
-        <v>0.9956507532678343</v>
+        <v>1.033148993174146</v>
       </c>
       <c r="M19">
-        <v>1.001114464732532</v>
+        <v>1.041673270666647</v>
       </c>
       <c r="N19">
-        <v>1.000039594928951</v>
+        <v>1.012593241848927</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9593404467857912</v>
+        <v>1.019330165509604</v>
       </c>
       <c r="D20">
-        <v>0.9703031669746168</v>
+        <v>1.022251549596712</v>
       </c>
       <c r="E20">
-        <v>0.979845440470376</v>
+        <v>1.029467599387232</v>
       </c>
       <c r="F20">
-        <v>0.9852216577156103</v>
+        <v>1.037988900590215</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044028489837488</v>
+        <v>1.026776756996141</v>
       </c>
       <c r="J20">
-        <v>0.9885339857984939</v>
+        <v>1.025640657540494</v>
       </c>
       <c r="K20">
-        <v>0.9848891031630644</v>
+        <v>1.025673832829431</v>
       </c>
       <c r="L20">
-        <v>0.9942521896509929</v>
+        <v>1.03286412039084</v>
       </c>
       <c r="M20">
-        <v>0.9995294411963952</v>
+        <v>1.041355507542992</v>
       </c>
       <c r="N20">
-        <v>0.9995738107123526</v>
+        <v>1.012501109556609</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.952493420819971</v>
+        <v>1.01804770322297</v>
       </c>
       <c r="D21">
-        <v>0.9643934687189205</v>
+        <v>1.021070893683116</v>
       </c>
       <c r="E21">
-        <v>0.974118354897043</v>
+        <v>1.028328788016373</v>
       </c>
       <c r="F21">
-        <v>0.9788696739086059</v>
+        <v>1.036744157238475</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043451248655543</v>
+        <v>1.02679241246641</v>
       </c>
       <c r="J21">
-        <v>0.9841209918719771</v>
+        <v>1.02476544077879</v>
       </c>
       <c r="K21">
-        <v>0.9800823454016526</v>
+        <v>1.024707492687441</v>
       </c>
       <c r="L21">
-        <v>0.9896072323467869</v>
+        <v>1.03193771125911</v>
       </c>
       <c r="M21">
-        <v>0.9942627380705817</v>
+        <v>1.040321528105108</v>
       </c>
       <c r="N21">
-        <v>0.9980252987090907</v>
+        <v>1.012201229667392</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9480677997837065</v>
+        <v>1.017241688295548</v>
       </c>
       <c r="D22">
-        <v>0.9605836049593411</v>
+        <v>1.020329241304278</v>
       </c>
       <c r="E22">
-        <v>0.9704263498331196</v>
+        <v>1.027613215159834</v>
       </c>
       <c r="F22">
-        <v>0.9747712136386971</v>
+        <v>1.035961466887169</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043061620142282</v>
+        <v>1.026799752091084</v>
       </c>
       <c r="J22">
-        <v>0.9812695549962925</v>
+        <v>1.024214968699833</v>
       </c>
       <c r="K22">
-        <v>0.9769785470514089</v>
+        <v>1.024099958608288</v>
       </c>
       <c r="L22">
-        <v>0.9866073480772445</v>
+        <v>1.031355040977366</v>
       </c>
       <c r="M22">
-        <v>0.9908595907711647</v>
+        <v>1.03967073466997</v>
       </c>
       <c r="N22">
-        <v>0.9970240660921027</v>
+        <v>1.012012415903474</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9504258213076958</v>
+        <v>1.017668942096462</v>
       </c>
       <c r="D23">
-        <v>0.9626125775113576</v>
+        <v>1.020722341602748</v>
       </c>
       <c r="E23">
-        <v>0.972392532809139</v>
+        <v>1.027992511911882</v>
       </c>
       <c r="F23">
-        <v>0.9769541883764645</v>
+        <v>1.036376392547362</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043270728469831</v>
+        <v>1.026796098222743</v>
       </c>
       <c r="J23">
-        <v>0.982788718169375</v>
+        <v>1.024506802344464</v>
       </c>
       <c r="K23">
-        <v>0.9786319668056466</v>
+        <v>1.024422020017272</v>
       </c>
       <c r="L23">
-        <v>0.9882054567015426</v>
+        <v>1.031663944528271</v>
       </c>
       <c r="M23">
-        <v>0.9926726760901583</v>
+        <v>1.040015797881986</v>
       </c>
       <c r="N23">
-        <v>0.99755755160426</v>
+        <v>1.012112534992648</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9594532968144699</v>
+        <v>1.019351671668581</v>
       </c>
       <c r="D24">
-        <v>0.9704007248577415</v>
+        <v>1.022271354883401</v>
       </c>
       <c r="E24">
-        <v>0.9799399836987683</v>
+        <v>1.029486699230912</v>
       </c>
       <c r="F24">
-        <v>0.985326455613652</v>
+        <v>1.038009767674897</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044037720978643</v>
+        <v>1.026776452020753</v>
       </c>
       <c r="J24">
-        <v>0.9886067286266398</v>
+        <v>1.025655327493544</v>
       </c>
       <c r="K24">
-        <v>0.9849683709333347</v>
+        <v>1.025690034392924</v>
       </c>
       <c r="L24">
-        <v>0.9943287781241167</v>
+        <v>1.032879648381331</v>
       </c>
       <c r="M24">
-        <v>0.9996162502645621</v>
+        <v>1.0413728306439</v>
       </c>
       <c r="N24">
-        <v>0.9995993238887932</v>
+        <v>1.012506132549609</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.969448850326588</v>
+        <v>1.021305816340776</v>
       </c>
       <c r="D25">
-        <v>0.9790620894679136</v>
+        <v>1.024071840202923</v>
       </c>
       <c r="E25">
-        <v>0.9883332470139594</v>
+        <v>1.031222553261458</v>
       </c>
       <c r="F25">
-        <v>0.9946213084283217</v>
+        <v>1.039904898468015</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044814192470083</v>
+        <v>1.026742721087137</v>
       </c>
       <c r="J25">
-        <v>0.9950500161610956</v>
+        <v>1.026987316529266</v>
       </c>
       <c r="K25">
-        <v>0.9919943749777121</v>
+        <v>1.027161689745313</v>
       </c>
       <c r="L25">
-        <v>1.0011154150882</v>
+        <v>1.034289537990128</v>
       </c>
       <c r="M25">
-        <v>1.007303699469353</v>
+        <v>1.04294458285845</v>
       </c>
       <c r="N25">
-        <v>1.001857275478978</v>
+        <v>1.012961715934136</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_211/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_211/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022865631252103</v>
+        <v>0.9770777113457492</v>
       </c>
       <c r="D2">
-        <v>1.025510287619976</v>
+        <v>0.9856999971356639</v>
       </c>
       <c r="E2">
-        <v>1.032608628337462</v>
+        <v>0.9947643940817136</v>
       </c>
       <c r="F2">
-        <v>1.041416197227252</v>
+        <v>1.001730142757265</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026706965650817</v>
+        <v>1.045344468528287</v>
       </c>
       <c r="J2">
-        <v>1.028049065184334</v>
+        <v>0.9999663283304033</v>
       </c>
       <c r="K2">
-        <v>1.028335647395785</v>
+        <v>0.9973622153681534</v>
       </c>
       <c r="L2">
-        <v>1.0354133672848</v>
+        <v>1.006297154357863</v>
       </c>
       <c r="M2">
-        <v>1.044195774322585</v>
+        <v>1.013165426454723</v>
       </c>
       <c r="N2">
-        <v>1.013324148161443</v>
+        <v>1.003577035557237</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023998909902228</v>
+        <v>0.9824369102966293</v>
       </c>
       <c r="D3">
-        <v>1.026556119376375</v>
+        <v>0.9903775105291212</v>
       </c>
       <c r="E3">
-        <v>1.0336159513703</v>
+        <v>0.9992950300062212</v>
       </c>
       <c r="F3">
-        <v>1.042513387903579</v>
+        <v>1.006730309849287</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026675851733607</v>
+        <v>1.045678957212161</v>
       </c>
       <c r="J3">
-        <v>1.028819623087733</v>
+        <v>1.003418089446083</v>
       </c>
       <c r="K3">
-        <v>1.029188150035785</v>
+        <v>1.001135011720285</v>
       </c>
       <c r="L3">
-        <v>1.036228967212125</v>
+        <v>1.009936939009176</v>
       </c>
       <c r="M3">
-        <v>1.045102835912574</v>
+        <v>1.017277793345611</v>
       </c>
       <c r="N3">
-        <v>1.013586760982975</v>
+        <v>1.004782474601979</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024732554952344</v>
+        <v>0.98582709705342</v>
       </c>
       <c r="D4">
-        <v>1.027233488926321</v>
+        <v>0.9933427484765932</v>
       </c>
       <c r="E4">
-        <v>1.034268178707507</v>
+        <v>1.002166478713056</v>
       </c>
       <c r="F4">
-        <v>1.043223275939709</v>
+        <v>1.009895595936205</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026653328498527</v>
+        <v>1.045872326843881</v>
       </c>
       <c r="J4">
-        <v>1.029318058496989</v>
+        <v>1.0056004293035</v>
       </c>
       <c r="K4">
-        <v>1.029739827277754</v>
+        <v>1.003522190318794</v>
       </c>
       <c r="L4">
-        <v>1.036756530907662</v>
+        <v>1.012238826383835</v>
       </c>
       <c r="M4">
-        <v>1.045689109917733</v>
+        <v>1.019876039101089</v>
       </c>
       <c r="N4">
-        <v>1.013756436762798</v>
+        <v>1.005543598752764</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025041060988944</v>
+        <v>0.9872345524874886</v>
       </c>
       <c r="D5">
-        <v>1.027518409937326</v>
+        <v>0.9945752344755239</v>
       </c>
       <c r="E5">
-        <v>1.034542475959977</v>
+        <v>1.003359800124916</v>
       </c>
       <c r="F5">
-        <v>1.043521696316437</v>
+        <v>1.011210118461279</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026643286458578</v>
+        <v>1.045948139785818</v>
       </c>
       <c r="J5">
-        <v>1.029527560827157</v>
+        <v>1.006506100380215</v>
       </c>
       <c r="K5">
-        <v>1.029971764690024</v>
+        <v>1.004513319336084</v>
       </c>
       <c r="L5">
-        <v>1.036978274530145</v>
+        <v>1.013194256854205</v>
       </c>
       <c r="M5">
-        <v>1.045935422132413</v>
+        <v>1.020953848742278</v>
       </c>
       <c r="N5">
-        <v>1.013827707973501</v>
+        <v>1.005859214419504</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025092865320127</v>
+        <v>0.9874698500337398</v>
       </c>
       <c r="D6">
-        <v>1.027566258511916</v>
+        <v>0.9947813644267665</v>
       </c>
       <c r="E6">
-        <v>1.034588537587128</v>
+        <v>1.003559368699887</v>
       </c>
       <c r="F6">
-        <v>1.043571801429935</v>
+        <v>1.011429902426655</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026641566709819</v>
+        <v>1.045960548954671</v>
       </c>
       <c r="J6">
-        <v>1.029562734851993</v>
+        <v>1.006657488590121</v>
       </c>
       <c r="K6">
-        <v>1.030010708725819</v>
+        <v>1.004679018842829</v>
       </c>
       <c r="L6">
-        <v>1.037015503667686</v>
+        <v>1.013353970894505</v>
       </c>
       <c r="M6">
-        <v>1.045976769795241</v>
+        <v>1.021133982554579</v>
       </c>
       <c r="N6">
-        <v>1.013839671173715</v>
+        <v>1.005911956372697</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024736676903317</v>
+        <v>0.9858459723875935</v>
       </c>
       <c r="D7">
-        <v>1.027237295446253</v>
+        <v>0.9933592716421281</v>
       </c>
       <c r="E7">
-        <v>1.034271843484629</v>
+        <v>1.002182477564988</v>
       </c>
       <c r="F7">
-        <v>1.043227263512913</v>
+        <v>1.009913223352699</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026653196570139</v>
+        <v>1.045873361336721</v>
       </c>
       <c r="J7">
-        <v>1.029320858034129</v>
+        <v>1.00561257663027</v>
       </c>
       <c r="K7">
-        <v>1.029742926388387</v>
+        <v>1.003535482070951</v>
       </c>
       <c r="L7">
-        <v>1.036759494030453</v>
+        <v>1.012251640545535</v>
       </c>
       <c r="M7">
-        <v>1.045692401772597</v>
+        <v>1.019890497120125</v>
       </c>
       <c r="N7">
-        <v>1.013757389329996</v>
+        <v>1.005547832957753</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023248558542754</v>
+        <v>0.9789054319844863</v>
       </c>
       <c r="D8">
-        <v>1.025863597554226</v>
+        <v>0.9872938791382516</v>
       </c>
       <c r="E8">
-        <v>1.032948970414474</v>
+        <v>0.9963083575433683</v>
       </c>
       <c r="F8">
-        <v>1.041787011763677</v>
+        <v>1.003434891141525</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026696944921733</v>
+        <v>1.045462313524364</v>
       </c>
       <c r="J8">
-        <v>1.028309513480885</v>
+        <v>1.001143755053297</v>
       </c>
       <c r="K8">
-        <v>1.028623744138844</v>
+        <v>0.9986487588086488</v>
       </c>
       <c r="L8">
-        <v>1.03568904113286</v>
+        <v>1.007538567774151</v>
       </c>
       <c r="M8">
-        <v>1.044502455489732</v>
+        <v>1.014568534808139</v>
       </c>
       <c r="N8">
-        <v>1.013412951574591</v>
+        <v>1.003988425684609</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020628858867363</v>
+        <v>0.9660430029229354</v>
       </c>
       <c r="D9">
-        <v>1.023447913184159</v>
+        <v>0.9761063232615577</v>
       </c>
       <c r="E9">
-        <v>1.030621136565004</v>
+        <v>0.9854691148830546</v>
       </c>
       <c r="F9">
-        <v>1.039248600182973</v>
+        <v>0.991451551311585</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026755770427594</v>
+        <v>1.044559214528243</v>
       </c>
       <c r="J9">
-        <v>1.026526111331389</v>
+        <v>0.9928546114889447</v>
       </c>
       <c r="K9">
-        <v>1.026651988622907</v>
+        <v>0.9895993312625888</v>
       </c>
       <c r="L9">
-        <v>1.033801361307025</v>
+        <v>0.9988024287545602</v>
       </c>
       <c r="M9">
-        <v>1.042400616899688</v>
+        <v>1.004684860643016</v>
       </c>
       <c r="N9">
-        <v>1.01280407996468</v>
+        <v>1.001088386217865</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018884060854426</v>
+        <v>0.9569851164995388</v>
       </c>
       <c r="D10">
-        <v>1.021840773836129</v>
+        <v>0.9682681645339524</v>
       </c>
       <c r="E10">
-        <v>1.029071428695964</v>
+        <v>0.9778733150660184</v>
       </c>
       <c r="F10">
-        <v>1.037556003022065</v>
+        <v>0.9830351593462607</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026782765030883</v>
+        <v>1.043833662337973</v>
       </c>
       <c r="J10">
-        <v>1.025336305053232</v>
+        <v>0.9870158017068266</v>
       </c>
       <c r="K10">
-        <v>1.025337736353184</v>
+        <v>0.9832349982430096</v>
       </c>
       <c r="L10">
-        <v>1.032541966270522</v>
+        <v>0.9926539059595892</v>
       </c>
       <c r="M10">
-        <v>1.040996051377452</v>
+        <v>0.99771762719908</v>
       </c>
       <c r="N10">
-        <v>1.012396873390566</v>
+        <v>0.9990412413011812</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018128927993625</v>
+        <v>0.9529340661816473</v>
       </c>
       <c r="D11">
-        <v>1.02114564853345</v>
+        <v>0.9647732302900766</v>
       </c>
       <c r="E11">
-        <v>1.028400905471588</v>
+        <v>0.9744863773902448</v>
       </c>
       <c r="F11">
-        <v>1.0368230154695</v>
+        <v>0.979278063150623</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026791566969526</v>
+        <v>1.043489366102651</v>
       </c>
       <c r="J11">
-        <v>1.024820896454931</v>
+        <v>0.9844049482761592</v>
       </c>
       <c r="K11">
-        <v>1.024768707518954</v>
+        <v>0.9803915192720143</v>
       </c>
       <c r="L11">
-        <v>1.031996410648891</v>
+        <v>0.9899060342472932</v>
       </c>
       <c r="M11">
-        <v>1.040387070648639</v>
+        <v>0.9946016389578421</v>
       </c>
       <c r="N11">
-        <v>1.012220242574225</v>
+        <v>0.9981249787801385</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017848493432861</v>
+        <v>0.9514086080369856</v>
       </c>
       <c r="D12">
-        <v>1.020887564372235</v>
+        <v>0.9634588724652307</v>
       </c>
       <c r="E12">
-        <v>1.028151919877941</v>
+        <v>0.9732126542129946</v>
       </c>
       <c r="F12">
-        <v>1.036550739015063</v>
+        <v>0.9778645135054336</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026794403602652</v>
+        <v>1.04335687311926</v>
       </c>
       <c r="J12">
-        <v>1.024629418188923</v>
+        <v>0.9834219611490085</v>
       </c>
       <c r="K12">
-        <v>1.024557352217143</v>
+        <v>0.9793213031168776</v>
       </c>
       <c r="L12">
-        <v>1.031793732427587</v>
+        <v>0.9888717035973431</v>
       </c>
       <c r="M12">
-        <v>1.040160748898479</v>
+        <v>0.9934284472650465</v>
       </c>
       <c r="N12">
-        <v>1.012154587810452</v>
+        <v>0.9977798896896549</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017908645108707</v>
+        <v>0.9517367844694423</v>
       </c>
       <c r="D13">
-        <v>1.02094291904258</v>
+        <v>0.9637415562872945</v>
       </c>
       <c r="E13">
-        <v>1.02820532466907</v>
+        <v>0.9734865971906795</v>
       </c>
       <c r="F13">
-        <v>1.036609143791983</v>
+        <v>0.9781685570822091</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026793814705538</v>
+        <v>1.043385503108005</v>
       </c>
       <c r="J13">
-        <v>1.024670492405683</v>
+        <v>0.9836334259606533</v>
       </c>
       <c r="K13">
-        <v>1.024602688319847</v>
+        <v>0.9795515170417701</v>
       </c>
       <c r="L13">
-        <v>1.031837209160635</v>
+        <v>0.989094202269634</v>
       </c>
       <c r="M13">
-        <v>1.040209301072949</v>
+        <v>0.9936808296985574</v>
       </c>
       <c r="N13">
-        <v>1.012168673071258</v>
+        <v>0.9978541318680539</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018105746061512</v>
+        <v>0.9528084021907108</v>
       </c>
       <c r="D14">
-        <v>1.0211243128452</v>
+        <v>0.9646649213846018</v>
       </c>
       <c r="E14">
-        <v>1.028380322683049</v>
+        <v>0.9743814163765303</v>
       </c>
       <c r="F14">
-        <v>1.036800509262284</v>
+        <v>0.9791615922655421</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026791810270159</v>
+        <v>1.04347850864016</v>
       </c>
       <c r="J14">
-        <v>1.024805069467873</v>
+        <v>0.9843239683298346</v>
       </c>
       <c r="K14">
-        <v>1.024751236675883</v>
+        <v>0.9803033460694009</v>
       </c>
       <c r="L14">
-        <v>1.031979657909915</v>
+        <v>0.9898208194536279</v>
       </c>
       <c r="M14">
-        <v>1.040368365252613</v>
+        <v>0.9945049897353497</v>
       </c>
       <c r="N14">
-        <v>1.01221481647366</v>
+        <v>0.9980965520931957</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018227193772282</v>
+        <v>0.9534658735922211</v>
       </c>
       <c r="D15">
-        <v>1.021236090957537</v>
+        <v>0.9652316607592859</v>
       </c>
       <c r="E15">
-        <v>1.028488154880268</v>
+        <v>0.974930638496691</v>
       </c>
       <c r="F15">
-        <v>1.036918414223737</v>
+        <v>0.9797710160801082</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026790517948808</v>
+        <v>1.043535199564417</v>
       </c>
       <c r="J15">
-        <v>1.024887982512903</v>
+        <v>0.9847476604160864</v>
       </c>
       <c r="K15">
-        <v>1.024842763183932</v>
+        <v>0.9807646881548192</v>
       </c>
       <c r="L15">
-        <v>1.032067420700659</v>
+        <v>0.9902666785968163</v>
       </c>
       <c r="M15">
-        <v>1.040466354154753</v>
+        <v>0.9950106639598728</v>
       </c>
       <c r="N15">
-        <v>1.012243240823324</v>
+        <v>0.9982452776440545</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018934184366349</v>
+        <v>0.9572511426718331</v>
       </c>
       <c r="D16">
-        <v>1.021886923345777</v>
+        <v>0.9684978999671813</v>
       </c>
       <c r="E16">
-        <v>1.029115939860446</v>
+        <v>0.9780959525439717</v>
       </c>
       <c r="F16">
-        <v>1.037604647272606</v>
+        <v>0.9832820417508243</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026782120130775</v>
+        <v>1.043855870756382</v>
       </c>
       <c r="J16">
-        <v>1.025370506475296</v>
+        <v>0.9871872691564643</v>
       </c>
       <c r="K16">
-        <v>1.025375501970749</v>
+        <v>0.9834217924641177</v>
       </c>
       <c r="L16">
-        <v>1.032578168159192</v>
+        <v>0.9928344045625904</v>
       </c>
       <c r="M16">
-        <v>1.041036450697671</v>
+        <v>0.9979222629412932</v>
       </c>
       <c r="N16">
-        <v>1.012408589314631</v>
+        <v>0.9991013998415398</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019377760819289</v>
+        <v>0.959590109837742</v>
       </c>
       <c r="D17">
-        <v>1.022295380986882</v>
+        <v>0.9705190053699722</v>
       </c>
       <c r="E17">
-        <v>1.029509869392943</v>
+        <v>0.9800546091388026</v>
       </c>
       <c r="F17">
-        <v>1.038035081268085</v>
+        <v>0.9854535111661257</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026776080152916</v>
+        <v>1.044048899353562</v>
       </c>
       <c r="J17">
-        <v>1.025673123322304</v>
+        <v>0.9886949182102184</v>
       </c>
       <c r="K17">
-        <v>1.02570968837795</v>
+        <v>0.9850644725504463</v>
       </c>
       <c r="L17">
-        <v>1.032898485076752</v>
+        <v>0.9944216309068736</v>
       </c>
       <c r="M17">
-        <v>1.041393844596261</v>
+        <v>0.9997214926190815</v>
       </c>
       <c r="N17">
-        <v>1.012512225688069</v>
+        <v>0.9996302541483063</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019636527831213</v>
+        <v>0.9609420474806036</v>
       </c>
       <c r="D18">
-        <v>1.022533702376751</v>
+        <v>0.9716882138090607</v>
       </c>
       <c r="E18">
-        <v>1.029739691088815</v>
+        <v>0.9811876824383629</v>
       </c>
       <c r="F18">
-        <v>1.038286138238406</v>
+        <v>0.9867092905402497</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026772278530361</v>
+        <v>1.044158588589145</v>
       </c>
       <c r="J18">
-        <v>1.025849613922155</v>
+        <v>0.989566390428355</v>
       </c>
       <c r="K18">
-        <v>1.025904618605052</v>
+        <v>0.986014221141719</v>
       </c>
       <c r="L18">
-        <v>1.033085298403886</v>
+        <v>0.995339239193325</v>
       </c>
       <c r="M18">
-        <v>1.041602229732163</v>
+        <v>1.000761451599727</v>
       </c>
       <c r="N18">
-        <v>1.012572645343663</v>
+        <v>0.9999358663745036</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019724766898286</v>
+        <v>0.9614009688265222</v>
       </c>
       <c r="D19">
-        <v>1.022614976536948</v>
+        <v>0.9720852732344185</v>
       </c>
       <c r="E19">
-        <v>1.029818062707429</v>
+        <v>0.9815724681746989</v>
       </c>
       <c r="F19">
-        <v>1.038371740836364</v>
+        <v>0.9871356773520107</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026770934990617</v>
+        <v>1.0441955000125</v>
       </c>
       <c r="J19">
-        <v>1.025909789156569</v>
+        <v>0.9898622204475488</v>
       </c>
       <c r="K19">
-        <v>1.025971085624639</v>
+        <v>0.9863366608618734</v>
       </c>
       <c r="L19">
-        <v>1.033148993174146</v>
+        <v>0.9956507532678337</v>
       </c>
       <c r="M19">
-        <v>1.041673270666647</v>
+        <v>1.001114464732531</v>
       </c>
       <c r="N19">
-        <v>1.012593241848927</v>
+        <v>1.000039594928951</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019330165509604</v>
+        <v>0.9593404467857914</v>
       </c>
       <c r="D20">
-        <v>1.022251549596712</v>
+        <v>0.9703031669746173</v>
       </c>
       <c r="E20">
-        <v>1.029467599387232</v>
+        <v>0.9798454404703761</v>
       </c>
       <c r="F20">
-        <v>1.037988900590215</v>
+        <v>0.9852216577156103</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026776756996141</v>
+        <v>1.044028489837488</v>
       </c>
       <c r="J20">
-        <v>1.025640657540494</v>
+        <v>0.9885339857984942</v>
       </c>
       <c r="K20">
-        <v>1.025673832829431</v>
+        <v>0.9848891031630648</v>
       </c>
       <c r="L20">
-        <v>1.03286412039084</v>
+        <v>0.9942521896509929</v>
       </c>
       <c r="M20">
-        <v>1.041355507542992</v>
+        <v>0.9995294411963951</v>
       </c>
       <c r="N20">
-        <v>1.012501109556609</v>
+        <v>0.9995738107123526</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01804770322297</v>
+        <v>0.952493420819971</v>
       </c>
       <c r="D21">
-        <v>1.021070893683116</v>
+        <v>0.9643934687189207</v>
       </c>
       <c r="E21">
-        <v>1.028328788016373</v>
+        <v>0.9741183548970437</v>
       </c>
       <c r="F21">
-        <v>1.036744157238475</v>
+        <v>0.9788696739086064</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02679241246641</v>
+        <v>1.043451248655543</v>
       </c>
       <c r="J21">
-        <v>1.02476544077879</v>
+        <v>0.9841209918719773</v>
       </c>
       <c r="K21">
-        <v>1.024707492687441</v>
+        <v>0.980082345401653</v>
       </c>
       <c r="L21">
-        <v>1.03193771125911</v>
+        <v>0.9896072323467873</v>
       </c>
       <c r="M21">
-        <v>1.040321528105108</v>
+        <v>0.9942627380705822</v>
       </c>
       <c r="N21">
-        <v>1.012201229667392</v>
+        <v>0.9980252987090907</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017241688295548</v>
+        <v>0.9480677997837061</v>
       </c>
       <c r="D22">
-        <v>1.020329241304278</v>
+        <v>0.960583604959341</v>
       </c>
       <c r="E22">
-        <v>1.027613215159834</v>
+        <v>0.9704263498331194</v>
       </c>
       <c r="F22">
-        <v>1.035961466887169</v>
+        <v>0.9747712136386972</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026799752091084</v>
+        <v>1.043061620142282</v>
       </c>
       <c r="J22">
-        <v>1.024214968699833</v>
+        <v>0.9812695549962924</v>
       </c>
       <c r="K22">
-        <v>1.024099958608288</v>
+        <v>0.9769785470514087</v>
       </c>
       <c r="L22">
-        <v>1.031355040977366</v>
+        <v>0.9866073480772444</v>
       </c>
       <c r="M22">
-        <v>1.03967073466997</v>
+        <v>0.9908595907711648</v>
       </c>
       <c r="N22">
-        <v>1.012012415903474</v>
+        <v>0.9970240660921026</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017668942096462</v>
+        <v>0.9504258213076953</v>
       </c>
       <c r="D23">
-        <v>1.020722341602748</v>
+        <v>0.9626125775113569</v>
       </c>
       <c r="E23">
-        <v>1.027992511911882</v>
+        <v>0.9723925328091383</v>
       </c>
       <c r="F23">
-        <v>1.036376392547362</v>
+        <v>0.9769541883764639</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026796098222743</v>
+        <v>1.043270728469831</v>
       </c>
       <c r="J23">
-        <v>1.024506802344464</v>
+        <v>0.9827887181693743</v>
       </c>
       <c r="K23">
-        <v>1.024422020017272</v>
+        <v>0.9786319668056458</v>
       </c>
       <c r="L23">
-        <v>1.031663944528271</v>
+        <v>0.9882054567015419</v>
       </c>
       <c r="M23">
-        <v>1.040015797881986</v>
+        <v>0.9926726760901576</v>
       </c>
       <c r="N23">
-        <v>1.012112534992648</v>
+        <v>0.9975575516042597</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019351671668581</v>
+        <v>0.9594532968144704</v>
       </c>
       <c r="D24">
-        <v>1.022271354883401</v>
+        <v>0.9704007248577418</v>
       </c>
       <c r="E24">
-        <v>1.029486699230912</v>
+        <v>0.9799399836987689</v>
       </c>
       <c r="F24">
-        <v>1.038009767674897</v>
+        <v>0.9853264556136528</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026776452020753</v>
+        <v>1.044037720978643</v>
       </c>
       <c r="J24">
-        <v>1.025655327493544</v>
+        <v>0.9886067286266405</v>
       </c>
       <c r="K24">
-        <v>1.025690034392924</v>
+        <v>0.9849683709333351</v>
       </c>
       <c r="L24">
-        <v>1.032879648381331</v>
+        <v>0.9943287781241172</v>
       </c>
       <c r="M24">
-        <v>1.0413728306439</v>
+        <v>0.9996162502645631</v>
       </c>
       <c r="N24">
-        <v>1.012506132549609</v>
+        <v>0.9995993238887934</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021305816340776</v>
+        <v>0.969448850326587</v>
       </c>
       <c r="D25">
-        <v>1.024071840202923</v>
+        <v>0.9790620894679121</v>
       </c>
       <c r="E25">
-        <v>1.031222553261458</v>
+        <v>0.9883332470139584</v>
       </c>
       <c r="F25">
-        <v>1.039904898468015</v>
+        <v>0.994621308428321</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026742721087137</v>
+        <v>1.044814192470083</v>
       </c>
       <c r="J25">
-        <v>1.026987316529266</v>
+        <v>0.9950500161610945</v>
       </c>
       <c r="K25">
-        <v>1.027161689745313</v>
+        <v>0.9919943749777107</v>
       </c>
       <c r="L25">
-        <v>1.034289537990128</v>
+        <v>1.001115415088199</v>
       </c>
       <c r="M25">
-        <v>1.04294458285845</v>
+        <v>1.007303699469352</v>
       </c>
       <c r="N25">
-        <v>1.012961715934136</v>
+        <v>1.001857275478978</v>
       </c>
     </row>
   </sheetData>
